--- a/Datas/attr/actor.xlsx
+++ b/Datas/attr/actor.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -122,6 +122,35 @@
   <si>
     <t>WIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友3</t>
+  </si>
+  <si>
+    <t>队友4</t>
+  </si>
+  <si>
+    <t>队友5</t>
+  </si>
+  <si>
+    <t>队友6</t>
+  </si>
+  <si>
+    <t>队友7</t>
+  </si>
+  <si>
+    <t>队友8</t>
+  </si>
+  <si>
+    <t>队友9</t>
   </si>
 </sst>
 </file>
@@ -129,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -207,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,14 +246,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,6 +722,213 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
